--- a/data/hotels_by_city/Houston/Houston_shard_56.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_56.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d6833982-Reviews-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Premier-Ashton-Suites-Willowbrook.h8667967.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2008 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r581690758-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6833982</t>
+  </si>
+  <si>
+    <t>581690758</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>Great hotel. Clean and comfortable.I would recommend for sure!The location was great. The decor is modern.  The room came with everything we needed.  We recommended to our in town friends to have guests stay at that hotel if needed in the future.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r578070603-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578070603</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>A place to call home when you need it.</t>
+  </si>
+  <si>
+    <t>The rooms are very nice, the staff is efficient and friendly, the building interior is very nicely appointed, the exterior is well maintained, and the TV service is much broader than I am used to finding.  The breakfast is complimentary and the service is over the top with made to order eggs and omelets as well as fresh fruit and every other option that you will find at any establishment, served by staff that make you very comfortable.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r563156490-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563156490</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Nice location, the room was perfect.  Near mall and movie theater and close in interstate.  The amenities were nice.  Most of the staff was nice and accommodating.  As a Diamond Select member I was not recognized or greeted when checking in, only asked if I was checking in.  Breakfast food ran out before breakfast was over.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r547457370-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547457370</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>location is great, during check in the guy was fantastic, breakfast is okay, rooms are extremely clean, the view is terrible but was staying for a business matter so that really was no big deal.  Overall stay was perfect.  I'd recommend staying here.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r547123719-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547123719</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Unknown Diamond</t>
+  </si>
+  <si>
+    <t>This Best Western has excellent service and the beds are outstanding. Easy to get a good night sleep. Breakfast is ok better than HI or Hampton but not a full service Breakfast, Excellent staff and very accommodating. I plan on staying there many times in the next year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r546751212-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546751212</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. it is close to the mall but not that close where you have trouble getting out to the street. lots of great  places to eat and shop in walking distance. even though it is close to the freeway you cant hear the freeway. Breakfast is awsome! I love real bacon and they have real bacon! they also have an omelet bar that is made to order.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r543827939-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543827939</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Harvey displaced</t>
+  </si>
+  <si>
+    <t>I want to say the the Bestwestern Willowbrook has been comfortable and clean I recommend this hotel to the World, the staff is friendly and caring for the last two years 3 weeks each year this has been home</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r543502347-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543502347</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>horrible employees lied and charged us more all about making money horrible attitudes to the customers talked to us with an attitude, extremely impolite, just wanted to charge us any way they could  very sad experience on a trip meant to be fun rooms clean good breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>BestWesternHotels, Corporate  at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>horrible employees lied and charged us more all about making money horrible attitudes to the customers talked to us with an attitude, extremely impolite, just wanted to charge us any way they could  very sad experience on a trip meant to be fun rooms clean good breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r540835334-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540835334</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Great Family Hotel</t>
+  </si>
+  <si>
+    <t>Just visited Houston this past weekend.  Spent 3 nights at the hotel.  The room was perfect for a family of 5.  Breakfast was very good.  The staff was friendly and helpful.  Would definitely recommend this hotel and would visit again if in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r535652405-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535652405</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Unsatisfied</t>
+  </si>
+  <si>
+    <t>There was a power outage late Friday night and nothing was communicated from the front desk.  Then this affected the hot water, so we could not take hot showers the entire next day.  Even when it was repaired, the water still was not hot.  We were there for softball and the washing machine was not working to wash uniforms.  Poor communication from staff on the ongoing issues...power outage, hot water, the washer was broken.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>There was a power outage late Friday night and nothing was communicated from the front desk.  Then this affected the hot water, so we could not take hot showers the entire next day.  Even when it was repaired, the water still was not hot.  We were there for softball and the washing machine was not working to wash uniforms.  Poor communication from staff on the ongoing issues...power outage, hot water, the washer was broken.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r535268169-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535268169</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>No Hot Water!! Could not talk to a manager asked multiple time to have manager call me. They played it off trying to get us to forget about it. Help kept saying sorry I was busy.. Do not waste your time or money on this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>No Hot Water!! Could not talk to a manager asked multiple time to have manager call me. They played it off trying to get us to forget about it. Help kept saying sorry I was busy.. Do not waste your time or money on this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r533637320-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533637320</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t>Very comfortable hotel. Kitchenettes are available, cook to order breakfast is excellent, small bar &amp; grill for a simple meal and drink at night and good service. I am extending my stay while there on business.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r529641978-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529641978</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Very Comfortable Bed!  Excellent breakfast buffet!</t>
+  </si>
+  <si>
+    <t>My husband and I were visiting Houston last weekend and stayed at this hotel.  It appears to be very new as everything was very pretty.  We stayed on the 3rd floor.  It was very quiet!  The front desk representatives were very courteous and friendly!  The bed was VERY comfortable.  The room was large!  The breakfast buffet was excellent - they had HOT plates which was wonderful.  The selection of the food was varied and all of it was very hot and very good.Would definitely stay there again!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r526590803-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526590803</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>when I arrived here form south Carolina the hotel staff was very friendly .. Christina Garcia was amazing in getting me transportation , my mail from home delivered here with no problem. rooms were always cleaned to perfection. I'm here for a month1/2 and couldn't be more satisfied with my stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r513015528-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513015528</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Hotel was nice but he front desk service was horrible</t>
+  </si>
+  <si>
+    <t>When I made my reservations, 3 days before arrival, everything was fine. When I went to check-in everything went down hill.  I was paying for the rooms with travel cards that I received from best western. And the overall problem was, they DID NOT WANT ME TO USE THEM. I spoke with the manager on the phone and she was contradicting what the front desk lady was telling me. I don't know if they were playing " good cop bad cop" or what. The hotel was nice but the front desk service needs a LOT of improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>When I made my reservations, 3 days before arrival, everything was fine. When I went to check-in everything went down hill.  I was paying for the rooms with travel cards that I received from best western. And the overall problem was, they DID NOT WANT ME TO USE THEM. I spoke with the manager on the phone and she was contradicting what the front desk lady was telling me. I don't know if they were playing " good cop bad cop" or what. The hotel was nice but the front desk service needs a LOT of improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r500595876-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500595876</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Very clean and affordable.</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Fairly new facilities. Good price. Stayed a couple of nights while we were having repairs done in our house. We used the fitness room and the swimming pool. I have no complaints. I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r496058659-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496058659</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>one night stand</t>
+  </si>
+  <si>
+    <t>We only got to stay one night but the service, spaciousness of the room and comfort of the bed let us know we will be back.  We didn't opt for the breakfast but it all looked delicious.  I did think that $13.00 for breakfast was a bit high, but I am not familiar with pricing in that area of Houston</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r488284878-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488284878</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Show stay?</t>
+  </si>
+  <si>
+    <t>My one night in Houston turned into a four night stay, but I must say that I couldn't have been any happier at any other hotel. The staff at this hotel was absolutely wonderful. The ladies behind the check in counter were so helpful. Christina got an uber driver for me to get to a nearby mall while my husband was working and she and the other girl were very  helpful and informative about local restaurants. Their breakfast was very good and Dressy is the girl that would tend to me in the morning for breakfast. She was a absolute doll. So very sweet and friendly. The hotel is very very clean! I cannot say enough of how well they keep the place clean. Our room was spotless and our bed was so very comfortable. Thank you to these wonderful people who made my stay much more nicer because of their kindness. If I have to go back to Houston, I will definitely stay there. They made me feel like family. Wonderful people!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>My one night in Houston turned into a four night stay, but I must say that I couldn't have been any happier at any other hotel. The staff at this hotel was absolutely wonderful. The ladies behind the check in counter were so helpful. Christina got an uber driver for me to get to a nearby mall while my husband was working and she and the other girl were very  helpful and informative about local restaurants. Their breakfast was very good and Dressy is the girl that would tend to me in the morning for breakfast. She was a absolute doll. So very sweet and friendly. The hotel is very very clean! I cannot say enough of how well they keep the place clean. Our room was spotless and our bed was so very comfortable. Thank you to these wonderful people who made my stay much more nicer because of their kindness. If I have to go back to Houston, I will definitely stay there. They made me feel like family. Wonderful people!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r482007044-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482007044</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise</t>
+  </si>
+  <si>
+    <t>Outstanding hotel and not at all like the Best Westerns of years ago! I was extremely and pleasantly surprised at the quality of décor, cleanliness, comfort of hotel room and lobby area. I thoroughly enjoyed my 3-day stay during a recent business trip. The staff were friendly and welcoming and very hospitable.  I would highly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r479047225-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479047225</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>hotel is clean and staff is friendly. location is great it is by lots of entertainment and places to eat and shop within walking distance. Loved the decor of the hotel. The breakfast was great with the omelet station and the make your own texas shaped waffle. Would have loved if they had a microwave to reheat food because it was hard to have you plate of food stay hot because it was cold in the dining area</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r468210825-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468210825</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>I really enjoyed this hotel. It has friendly staff, is incredibly clean, and has nice fresh breakfast selections. The decor is really cool, and the TV has a great selection of channels. It's a bit out of the way compared to many Houston destinations, but I found the drive worth it.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r464326475-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464326475</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Nice stay..enjoyed it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is pretty decent hotel. Far from downtown but it was near by my supplier's factory. Very well maintained property with good staff. I found most people here coming here for business trip. I stayed in Queen size room which was pretty large. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r462226399-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462226399</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>RV-Show &amp; Visit Close Friends</t>
+  </si>
+  <si>
+    <t>I booked my room via bestwestern.com even thought my primary reason for trip was to go to NRG Expo Center my sister-in-law lives 3-miles away from this location &amp; had invited me to dinner after the show. Per the websites photo i choose the 2-room suite (living room &amp; mini-kitchen with separate private bedroom) the direction i received online actually brought me in the back way &amp; I almost passed it up, luckily there was no one behind me when i slammed on the brakes to make sharp turn to the left off of Mills Rd onto Greens Rd. 
+I arrived slightly early about 2:30-pm &amp; walked in, the lady behind the counter greeted me &amp; i said: I know I'm early but wanted to see if i could check in now, i gave her my last name &amp; she started to look it up. I then handed her my: drivers license, master-card, best western rewards card &amp; my aarp card &amp; she smiled oh my, you already know the drill, i replied yes i do, after all I did what your doing for 15-yrs, she replied What ? I replied: I managed a hotel for 15-yrs but now happily retired.(We had a brief talk about what &amp; where at &amp; things but that's private) she gave the room key advised me of the hot breakfast hours &amp; said please enjoy your stay. 
+Once i walked into the room i...I booked my room via bestwestern.com even thought my primary reason for trip was to go to NRG Expo Center my sister-in-law lives 3-miles away from this location &amp; had invited me to dinner after the show. Per the websites photo i choose the 2-room suite (living room &amp; mini-kitchen with separate private bedroom) the direction i received online actually brought me in the back way &amp; I almost passed it up, luckily there was no one behind me when i slammed on the brakes to make sharp turn to the left off of Mills Rd onto Greens Rd. I arrived slightly early about 2:30-pm &amp; walked in, the lady behind the counter greeted me &amp; i said: I know I'm early but wanted to see if i could check in now, i gave her my last name &amp; she started to look it up. I then handed her my: drivers license, master-card, best western rewards card &amp; my aarp card &amp; she smiled oh my, you already know the drill, i replied yes i do, after all I did what your doing for 15-yrs, she replied What ? I replied: I managed a hotel for 15-yrs but now happily retired.(We had a brief talk about what &amp; where at &amp; things but that's private) she gave the room key advised me of the hot breakfast hours &amp; said please enjoy your stay. Once i walked into the room i immediately knew it was wrong: as it was a 1-room studio suite &amp; not the 2-room suite. But ironically the room was still so overwhelming elegant I didn't even bother complaining &amp; enjoyed it. After unpacking i left for my event.Once back at hotel, the bed was so high &amp; comfortable. I took another shower &amp; went to bed. In the morning while putting things into the car, i could smell the aroma of the breakfast bar just calling my name, but i had another home cooked breakfast awaiting for me so i check-out &amp; said thank you. The clerks did not wear name tags so i have no idea of whom to say thank you too. But hands down simply the Best Western Premier I been to yet. Congratulations guys &amp; continued success, if ever back in the area, i will most definitely stay with you folks again. Room #403 MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I booked my room via bestwestern.com even thought my primary reason for trip was to go to NRG Expo Center my sister-in-law lives 3-miles away from this location &amp; had invited me to dinner after the show. Per the websites photo i choose the 2-room suite (living room &amp; mini-kitchen with separate private bedroom) the direction i received online actually brought me in the back way &amp; I almost passed it up, luckily there was no one behind me when i slammed on the brakes to make sharp turn to the left off of Mills Rd onto Greens Rd. 
+I arrived slightly early about 2:30-pm &amp; walked in, the lady behind the counter greeted me &amp; i said: I know I'm early but wanted to see if i could check in now, i gave her my last name &amp; she started to look it up. I then handed her my: drivers license, master-card, best western rewards card &amp; my aarp card &amp; she smiled oh my, you already know the drill, i replied yes i do, after all I did what your doing for 15-yrs, she replied What ? I replied: I managed a hotel for 15-yrs but now happily retired.(We had a brief talk about what &amp; where at &amp; things but that's private) she gave the room key advised me of the hot breakfast hours &amp; said please enjoy your stay. 
+Once i walked into the room i...I booked my room via bestwestern.com even thought my primary reason for trip was to go to NRG Expo Center my sister-in-law lives 3-miles away from this location &amp; had invited me to dinner after the show. Per the websites photo i choose the 2-room suite (living room &amp; mini-kitchen with separate private bedroom) the direction i received online actually brought me in the back way &amp; I almost passed it up, luckily there was no one behind me when i slammed on the brakes to make sharp turn to the left off of Mills Rd onto Greens Rd. I arrived slightly early about 2:30-pm &amp; walked in, the lady behind the counter greeted me &amp; i said: I know I'm early but wanted to see if i could check in now, i gave her my last name &amp; she started to look it up. I then handed her my: drivers license, master-card, best western rewards card &amp; my aarp card &amp; she smiled oh my, you already know the drill, i replied yes i do, after all I did what your doing for 15-yrs, she replied What ? I replied: I managed a hotel for 15-yrs but now happily retired.(We had a brief talk about what &amp; where at &amp; things but that's private) she gave the room key advised me of the hot breakfast hours &amp; said please enjoy your stay. Once i walked into the room i immediately knew it was wrong: as it was a 1-room studio suite &amp; not the 2-room suite. But ironically the room was still so overwhelming elegant I didn't even bother complaining &amp; enjoyed it. After unpacking i left for my event.Once back at hotel, the bed was so high &amp; comfortable. I took another shower &amp; went to bed. In the morning while putting things into the car, i could smell the aroma of the breakfast bar just calling my name, but i had another home cooked breakfast awaiting for me so i check-out &amp; said thank you. The clerks did not wear name tags so i have no idea of whom to say thank you too. But hands down simply the Best Western Premier I been to yet. Congratulations guys &amp; continued success, if ever back in the area, i will most definitely stay with you folks again. Room #403 More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r456758755-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456758755</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Perfect for family</t>
+  </si>
+  <si>
+    <t>The queen suite comes with two queen beds and hide-a-bed so you actually can sleep up to six in this spacious, newly decorated room.  Each room has a Keurig, iHome charging Staion, microwave, refrigerator and big TV.  The beds and extra pillows were very comfortable.  Enough cannot be said about the extensive free breakfast and made to order omelettes.  We will stay here again.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r451387350-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451387350</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>HOUSTON TRIP</t>
+  </si>
+  <si>
+    <t>This hotel is near our Houston Branch, lots of shopping, restaurants, and easy access to highways.  Need more Best Western Premiers that will offer the same quality, professionalism, friendliness, and cleanliness.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r443630136-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443630136</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>I just spent 4 days at this great hotel.  The staff were very friendly and helpful. This was especially true when it came to arranging the hotel shuttle for my daily trips to a conference.  The rooms were large and bright with all the amenities. The free breakfast was very convenient  and a real time saver when you have to get out in a hurry.  It's close to a large mall and many other shops, however there appears to be a lack of sidewalks in the area, so you may find yourself walking on grass to access the retail areas.  The cost is very reasonable for what you are geting.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I just spent 4 days at this great hotel.  The staff were very friendly and helpful. This was especially true when it came to arranging the hotel shuttle for my daily trips to a conference.  The rooms were large and bright with all the amenities. The free breakfast was very convenient  and a real time saver when you have to get out in a hurry.  It's close to a large mall and many other shops, however there appears to be a lack of sidewalks in the area, so you may find yourself walking on grass to access the retail areas.  The cost is very reasonable for what you are geting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r441904101-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441904101</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Happy Place</t>
+  </si>
+  <si>
+    <t>Loved this hotel.  You might miss it if you're not looking for it.  The highway obstructs the outside logo.  The hotel is several years old but looks brand new.  It was the cleanest suite hotel I've ever stayed in.  The staff are unbelievably kind and courteous and take care of every need immediately.  The decor's bright, vivid, colors and patterns are very calming yet energizing too.  The breakfast is good, the coffee is good.  It's ALL GOOD!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r437217316-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437217316</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Clean Hotel, Friendly Staff, Poor Room Design</t>
+  </si>
+  <si>
+    <t>I very much wanted to like this hotel.  They covered the basics, for sure - it was very clean, well maintained, and the staff was about as helpful and friendly as they could possibly be.
+We stayed in the "kitchenette" suites.  I'm not sure who did the room design, but they should probably be doing something else for a career.  The list of small, but annoying things was almost overwhelming.  For instance, the switch for the bathroom light was located OUTSIDE the bathroom, and BEHIND the door.  So, to turn on the light in the bathroom, you had to CLOSE the bathroom door, turn on the light, then OPEN the bathroom door, and then go in the bathroom.  It was just sort of ridiculous.
+In a similar vein, the closet was located behind the bathroom door, and had not lighting.  So, it was an awkward situation.  There was a safe, located ON THE FLOOR in the closet.  The only way I could possibly picture using the safe would be to lay on the floor - with the bathroom door closed, and the half closet door open, with a flashlight.  It just was not well thought out.
+The kitchenette had similar issues.  If you actually used one of the chairs at the little "bar" area that served as the kitchen table and the only, if mostly dysfunctional, work space, it blocked any and all entrance to the kitchen area.
+The furniture...I very much wanted to like this hotel.  They covered the basics, for sure - it was very clean, well maintained, and the staff was about as helpful and friendly as they could possibly be.We stayed in the "kitchenette" suites.  I'm not sure who did the room design, but they should probably be doing something else for a career.  The list of small, but annoying things was almost overwhelming.  For instance, the switch for the bathroom light was located OUTSIDE the bathroom, and BEHIND the door.  So, to turn on the light in the bathroom, you had to CLOSE the bathroom door, turn on the light, then OPEN the bathroom door, and then go in the bathroom.  It was just sort of ridiculous.In a similar vein, the closet was located behind the bathroom door, and had not lighting.  So, it was an awkward situation.  There was a safe, located ON THE FLOOR in the closet.  The only way I could possibly picture using the safe would be to lay on the floor - with the bathroom door closed, and the half closet door open, with a flashlight.  It just was not well thought out.The kitchenette had similar issues.  If you actually used one of the chairs at the little "bar" area that served as the kitchen table and the only, if mostly dysfunctional, work space, it blocked any and all entrance to the kitchen area.The furniture was all ultra-modern.  That translates to "awkward and uncomfortable" in my world.Again, the hotel was super-clean, and the staff was terrific.  If you are not as obsessed with functionality, you may have a wonderful stay and not be troubled by any of the silly little things that really started to get on my nerves after a few days in the hotel! :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>I very much wanted to like this hotel.  They covered the basics, for sure - it was very clean, well maintained, and the staff was about as helpful and friendly as they could possibly be.
+We stayed in the "kitchenette" suites.  I'm not sure who did the room design, but they should probably be doing something else for a career.  The list of small, but annoying things was almost overwhelming.  For instance, the switch for the bathroom light was located OUTSIDE the bathroom, and BEHIND the door.  So, to turn on the light in the bathroom, you had to CLOSE the bathroom door, turn on the light, then OPEN the bathroom door, and then go in the bathroom.  It was just sort of ridiculous.
+In a similar vein, the closet was located behind the bathroom door, and had not lighting.  So, it was an awkward situation.  There was a safe, located ON THE FLOOR in the closet.  The only way I could possibly picture using the safe would be to lay on the floor - with the bathroom door closed, and the half closet door open, with a flashlight.  It just was not well thought out.
+The kitchenette had similar issues.  If you actually used one of the chairs at the little "bar" area that served as the kitchen table and the only, if mostly dysfunctional, work space, it blocked any and all entrance to the kitchen area.
+The furniture...I very much wanted to like this hotel.  They covered the basics, for sure - it was very clean, well maintained, and the staff was about as helpful and friendly as they could possibly be.We stayed in the "kitchenette" suites.  I'm not sure who did the room design, but they should probably be doing something else for a career.  The list of small, but annoying things was almost overwhelming.  For instance, the switch for the bathroom light was located OUTSIDE the bathroom, and BEHIND the door.  So, to turn on the light in the bathroom, you had to CLOSE the bathroom door, turn on the light, then OPEN the bathroom door, and then go in the bathroom.  It was just sort of ridiculous.In a similar vein, the closet was located behind the bathroom door, and had not lighting.  So, it was an awkward situation.  There was a safe, located ON THE FLOOR in the closet.  The only way I could possibly picture using the safe would be to lay on the floor - with the bathroom door closed, and the half closet door open, with a flashlight.  It just was not well thought out.The kitchenette had similar issues.  If you actually used one of the chairs at the little "bar" area that served as the kitchen table and the only, if mostly dysfunctional, work space, it blocked any and all entrance to the kitchen area.The furniture was all ultra-modern.  That translates to "awkward and uncomfortable" in my world.Again, the hotel was super-clean, and the staff was terrific.  If you are not as obsessed with functionality, you may have a wonderful stay and not be troubled by any of the silly little things that really started to get on my nerves after a few days in the hotel! :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r432780106-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432780106</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Amazing amazing amazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great hotel. Big rooms. Two doubled beds. Lovely breakfast. Great staff. Lovely pool. Near to downtown Houston. Highly recommended. We had a hire car so travel was easy. We came to Houston for a cincert at House if Blues so well situated for this. We got lost a few times which was scary. Hee hee </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r432572227-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432572227</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Best Western Experience</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and smells good. Looks very new and the rooms are really very comfortable, space is big and cozy.   Food is great but they should have a different variety per week. I have stayed there straight 2 weeks and straight 3 weeks and the food is kinda the same so l get sick of it after a while and have to eat outside. For a 5 day stay, I think food is really amazing. It was really healthy and the service is superb</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r408165223-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408165223</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Simply okay</t>
+  </si>
+  <si>
+    <t>I have been here during a business travel in Houston. The hotel is placed 20 minutes by car to the city centre of Houston. The location is perfect for business travel if you need to stay nearby the area in which the hotel is placed but too far from the centre if you want to just visit Houston. Inside the hotel is quite modern with huge and clean rooms (you can find even an iron and a microwave) a small and no so nice pool (we have not used it because of the weather) and a small but well equiped gym. The breakfast is not so various (too salty food for an European) but it is okay. All the personeel is really kind. Big parking in front of the structure and not far from an area with different restaurants. To sum up a good hotel for business travel in the area not so adapted for leisure or romantic travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I have been here during a business travel in Houston. The hotel is placed 20 minutes by car to the city centre of Houston. The location is perfect for business travel if you need to stay nearby the area in which the hotel is placed but too far from the centre if you want to just visit Houston. Inside the hotel is quite modern with huge and clean rooms (you can find even an iron and a microwave) a small and no so nice pool (we have not used it because of the weather) and a small but well equiped gym. The breakfast is not so various (too salty food for an European) but it is okay. All the personeel is really kind. Big parking in front of the structure and not far from an area with different restaurants. To sum up a good hotel for business travel in the area not so adapted for leisure or romantic travels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r398458077-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398458077</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>The people at this new Best Western are great.  They go out of their way to take care of me.  I normally don't stay at Best Western Hotels but this location has changed my mind.  I stay at this location many weeks per year.  Marco, Maritza and the rest do a great job.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r396432221-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396432221</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Staff is Very Professional</t>
+  </si>
+  <si>
+    <t>I stay in a lot of hotels for business and this is by far the most professional hotel staff that I have found in Houston. I love the fact that it is 100% smoke free and there are no animals allowed. I have allergies and that works for me.One thing I would like to see change is the stairwells are not air conditioned so if you are taking the stairs it gets pretty warm. Also I wish the Housekeepers could use a little less stronger cleaning products....more natural products would be great, as the pine scent is to strong. Something citrus might be better. All in all great place to call home!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay in a lot of hotels for business and this is by far the most professional hotel staff that I have found in Houston. I love the fact that it is 100% smoke free and there are no animals allowed. I have allergies and that works for me.One thing I would like to see change is the stairwells are not air conditioned so if you are taking the stairs it gets pretty warm. Also I wish the Housekeepers could use a little less stronger cleaning products....more natural products would be great, as the pine scent is to strong. Something citrus might be better. All in all great place to call home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r387799585-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387799585</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Perfect stay</t>
+  </si>
+  <si>
+    <t>It's a brand new hotel, decorated with lovely colors. The hotel is located in a new area of Houston, with lots of new houses and roads. The staff were very professional. The breakfast was amazing with an omelet station. Great selection of fruit and healthy products. The room was huge and beautifuly decorated with brown and turquoise colors. Also in the room: a real esspresso coffee maker. We had a great time there.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r386245550-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386245550</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Excellent rooms</t>
+  </si>
+  <si>
+    <t>Stayed 8nights for a business trip. Smart hotel, rooms large for this type of hotel, nicely furnished and well laid out. Everything was very clean with nice towels and linen. Breakfast was excellent, looked after by Cresencia and Rosa- thanks ladies.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r382663436-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382663436</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Premium quality hotel</t>
+  </si>
+  <si>
+    <t>Stayed overnight after a long day flying in from UK. Easy parking and check in, beautiful rooms clean and spacious. Breakfast was very good and staff were friendly and helpful. No hesitation recommending, was perfect for us to relax and move on the next day, but would have been happy staying longer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r376939626-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376939626</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Best Stay Ever</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay at the Best Western Premier.  It was one of the most beautiful hotels I've ever stayed in.  The rooms are simply gorgeous, the employees are wonderful, friendly and caring.  It's a good place to get away from it all for a weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay at the Best Western Premier.  It was one of the most beautiful hotels I've ever stayed in.  The rooms are simply gorgeous, the employees are wonderful, friendly and caring.  It's a good place to get away from it all for a weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r376939554-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376939554</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Best Western Ashton Suites remains my favorite place to stay while in Houston!! Not a better place in town for the price!! The staff is always friendly and now they have a small lounge. There are plenty of restaurants close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>Best Western Ashton Suites remains my favorite place to stay while in Houston!! Not a better place in town for the price!! The staff is always friendly and now they have a small lounge. There are plenty of restaurants close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r369736840-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369736840</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>First Class!</t>
+  </si>
+  <si>
+    <t>I usually stay at Hampton Inns or Holiday Inn Express. I have stayed at Best Western Plus before, but this is the first time I have stayed at a Best Western Premier. This place is awesome! From the professional staff behind the desk, the awesome Breakfast ladies, to the awesome Breakfast options. I would highly recommend this hotel over and above any other hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I usually stay at Hampton Inns or Holiday Inn Express. I have stayed at Best Western Plus before, but this is the first time I have stayed at a Best Western Premier. This place is awesome! From the professional staff behind the desk, the awesome Breakfast ladies, to the awesome Breakfast options. I would highly recommend this hotel over and above any other hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r361372928-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361372928</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>We were in town for a family wedding. We arrived late and there was no problems with our reservation. The room was great, comfortable, and just what we needed. My family loved it. I would defiantly stay there again if I were in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>We were in town for a family wedding. We arrived late and there was no problems with our reservation. The room was great, comfortable, and just what we needed. My family loved it. I would defiantly stay there again if I were in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r358345516-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358345516</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Spring Break with the Kids</t>
+  </si>
+  <si>
+    <t>This is my first time staying @ this location. Everything at first here seem pretty clean. My kids enjoyed staying here. They were hoping a little better weather, so they could use the pool.  I do like that they cook you an Omelet anyway you wanted. Real hot breakfast. I like that!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is my first time staying @ this location. Everything at first here seem pretty clean. My kids enjoyed staying here. They were hoping a little better weather, so they could use the pool.  I do like that they cook you an Omelet anyway you wanted. Real hot breakfast. I like that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r357568510-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357568510</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Nice, Clean, Spacious rooms</t>
+  </si>
+  <si>
+    <t>We decide to come to Houston for a weekend trip, and needed a hotel that would allow us to have adjoining rooms. The rooms were very spacious; each room had 2 queens, and a sleeper sofa. We ended up having more space than we needed! Not only were they spacious, but they were also clean. Before coming we spoke with "Maritza" (not sure if correctly spelled) at the front desk, and she was very helpful in giving us information about the hotel. Complimentary breakfast is offered, and it contained: a waffle maker, omelet bar, seasoned potatoes, bagels, raisin toast, eggs, yogurt, etc.) We will definitely stay at this hotel again! :) *It is about a 25-30 min away from the Galleria, but we didn't mind the driveMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>We decide to come to Houston for a weekend trip, and needed a hotel that would allow us to have adjoining rooms. The rooms were very spacious; each room had 2 queens, and a sleeper sofa. We ended up having more space than we needed! Not only were they spacious, but they were also clean. Before coming we spoke with "Maritza" (not sure if correctly spelled) at the front desk, and she was very helpful in giving us information about the hotel. Complimentary breakfast is offered, and it contained: a waffle maker, omelet bar, seasoned potatoes, bagels, raisin toast, eggs, yogurt, etc.) We will definitely stay at this hotel again! :) *It is about a 25-30 min away from the Galleria, but we didn't mind the driveMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r357484137-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357484137</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Great Room</t>
+  </si>
+  <si>
+    <t>The hotel is extremely nice &amp; staff is great. The bed had to be one of the most comfortable beds I have slept in. Plenty of space in the rooms. The amenities are very nice and the breakfast was very very good also.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is extremely nice &amp; staff is great. The bed had to be one of the most comfortable beds I have slept in. Plenty of space in the rooms. The amenities are very nice and the breakfast was very very good also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r357483991-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357483991</t>
+  </si>
+  <si>
+    <t>GREAT GREAT HOTEL</t>
+  </si>
+  <si>
+    <t>GREAT GREAT!! I was very surprise of the aservice and how great the rooms and hotel look, Bfast was GREAT . We all really enjoyed the service and all that the hotel has to offer, the location was god and close to the highway. Alot of stores and a mall very close ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>GREAT GREAT!! I was very surprise of the aservice and how great the rooms and hotel look, Bfast was GREAT . We all really enjoyed the service and all that the hotel has to offer, the location was god and close to the highway. Alot of stores and a mall very close ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r353752411-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353752411</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Good hotel for budget. Internet good. Breakfast Ok. Some food were not warm. Cleanliness good. Have a pool. So good. Location not so good. Doesn't have any near by shops for roaming and location seems to be remote. Exterior needs to have some trees for shadow walking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Good hotel for budget. Internet good. Breakfast Ok. Some food were not warm. Cleanliness good. Have a pool. So good. Location not so good. Doesn't have any near by shops for roaming and location seems to be remote. Exterior needs to have some trees for shadow walking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r352024483-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352024483</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>The Best of the Best Western!</t>
+  </si>
+  <si>
+    <t>I booked this hotel on line when checking Trip Advisor for some of the best Hotels in Houston.  They were not wrong!  It is new, clean, and comfortable.  The staff are extremely polite, professional, and accommodating!  The breakfast during my stay from Tuesday to Saturday was plentiful, and the breakfast lady was friendly and cooked personal omelettes for you!  The area of this hotel is also a plus, as you are near restaurants, and shopping!   I would highly recommend this hotel!  One of the Best of Best Western!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel on line when checking Trip Advisor for some of the best Hotels in Houston.  They were not wrong!  It is new, clean, and comfortable.  The staff are extremely polite, professional, and accommodating!  The breakfast during my stay from Tuesday to Saturday was plentiful, and the breakfast lady was friendly and cooked personal omelettes for you!  The area of this hotel is also a plus, as you are near restaurants, and shopping!   I would highly recommend this hotel!  One of the Best of Best Western!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r351539902-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351539902</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Just a stopover</t>
+  </si>
+  <si>
+    <t>Appeared to be a bit of confusion over check in, the lady checking us in, perhaps should have asked about rooms configurations instead of assuming and wanting everyone to provide credit cards? The room was beautiful and very comfy. Along way from downtown though, so if you are there to explore city you will definitely need a ride.Breakfast was good, room was lovely, staff just seemed a little confused and lost?MoreShow less</t>
+  </si>
+  <si>
+    <t>Appeared to be a bit of confusion over check in, the lady checking us in, perhaps should have asked about rooms configurations instead of assuming and wanting everyone to provide credit cards? The room was beautiful and very comfy. Along way from downtown though, so if you are there to explore city you will definitely need a ride.Breakfast was good, room was lovely, staff just seemed a little confused and lost?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r350158401-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350158401</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Very good hotel :)</t>
+  </si>
+  <si>
+    <t>Loved the hotel, well located infront of Willoowbrook Mall. It was very clean and comfortable, the staff was very friendly and eager to help and have security at nights..... The breakfast service is the best I've tried in Houston hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Loved the hotel, well located infront of Willoowbrook Mall. It was very clean and comfortable, the staff was very friendly and eager to help and have security at nights..... The breakfast service is the best I've tried in Houston hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r347123452-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347123452</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Best hotel in Houston !!!! </t>
+  </si>
+  <si>
+    <t>The front desk was very nice with a smile every time I came into the hotel &amp; breakfast was amazing. Enjoyed my free drink at the bar, I see why people enjoy it makes me feel at home. I had room service from the bar &amp; grill the food was delicious. Fast wifi &amp; beds are comfortable! Don't have anything negative to say about this hotel I will be back again. I see why everyone enjoys this hotel customer service goes a long way !! MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2016</t>
+  </si>
+  <si>
+    <t>The front desk was very nice with a smile every time I came into the hotel &amp; breakfast was amazing. Enjoyed my free drink at the bar, I see why people enjoy it makes me feel at home. I had room service from the bar &amp; grill the food was delicious. Fast wifi &amp; beds are comfortable! Don't have anything negative to say about this hotel I will be back again. I see why everyone enjoys this hotel customer service goes a long way !! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r345582378-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345582378</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 in Houston? I disagree </t>
+  </si>
+  <si>
+    <t>I purposely booked here because this hotel was rated #1 in Houston. But I guess my criteria are different than trip advisor's. Something a little on the elegant side, with 24 hr room service, great sound proofing, so you can sleep, and really comfortable beds. I would not stay here again because those details were lacking. However the breakfast was excellent. There were not a lot of guests so it was quiet. #1 in Houston? I don't get it. It's just ok. Yes, it's clean and friendly staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r344669799-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344669799</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Awesome hotel, awesome staff!</t>
+  </si>
+  <si>
+    <t>Staff greets with smiles &amp; is very helpful. I couldn't ask for a better get away hotel. The rooms are very modern and has everything you could ask for. The breakfast is absolutely fabulous. The best thing is that you can make your own omelet! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Staff greets with smiles &amp; is very helpful. I couldn't ask for a better get away hotel. The rooms are very modern and has everything you could ask for. The breakfast is absolutely fabulous. The best thing is that you can make your own omelet! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r340523459-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340523459</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Great Stay at the Ashton Suites</t>
+  </si>
+  <si>
+    <t>We stayed at the Ashton Suites Willowbrook for 4 nights in January. The staff were all very nice and helpful. We'd asked for a room on the top floor (the 4th floor) in a quiet location and got it. In fact, for the first two nights we had the entire 4th floor to ourselves! Even when other guests were put on our floor the 3rd night of our stay, although we saw them out in the hall, we heard no sounds from the neighboring rooms. 
+As others have said, the bed was very comfortable and the room was extremely clean and spacious. We also liked the sitting area with a small couch, chair, and coffee table. We also liked having other chairs in the room (one in the corner and one at the desk). We really appreciated having a refrigerator in the room, as well as a microwave, safe, and a decent-sized closet. 
+The bathroom was also very clean. We do prefer a walk-in shower, rather than a tub with a shower curtain, as this room had, however the shower curtain looked brand new and was spotless. Our only complaint was that there was no place to hang a towel or washcloth in the bathroom, other than on the robe hook on the back of the bathroom door. Strangely, there's a sign in the bathroom that asks guests to hang towels on the towel rack that don't need to be...We stayed at the Ashton Suites Willowbrook for 4 nights in January. The staff were all very nice and helpful. We'd asked for a room on the top floor (the 4th floor) in a quiet location and got it. In fact, for the first two nights we had the entire 4th floor to ourselves! Even when other guests were put on our floor the 3rd night of our stay, although we saw them out in the hall, we heard no sounds from the neighboring rooms. As others have said, the bed was very comfortable and the room was extremely clean and spacious. We also liked the sitting area with a small couch, chair, and coffee table. We also liked having other chairs in the room (one in the corner and one at the desk). We really appreciated having a refrigerator in the room, as well as a microwave, safe, and a decent-sized closet. The bathroom was also very clean. We do prefer a walk-in shower, rather than a tub with a shower curtain, as this room had, however the shower curtain looked brand new and was spotless. Our only complaint was that there was no place to hang a towel or washcloth in the bathroom, other than on the robe hook on the back of the bathroom door. Strangely, there's a sign in the bathroom that asks guests to hang towels on the towel rack that don't need to be replaced, and to leave towels we want replaced on the floor. When I mentioned to the front desk clerk that there was no towel bar in our bathroom, she checked with maintenance and later told us that the robe hook on the back of the door is where we were supposed to hang towels. However, if you do that, there is no place to hang your robe or PJs when you are taking a shower. And if you hang a wash cloth on the back of the door after using it, it will likely drip a little onto the floor right where you will be stepping. So that is our only complaint about the room - install some towel bars please!Otherwise, you really can't go wrong with this hotel. They have a good breakfast selection that is free with the room. The hotel is very convenient to Bush Intercontinental Airport and also convenient for getting to several highways around the Houston area. It is also very close to several nice restaurants including BJ's Restaurant &amp; Brewhouse and the Macaroni Grill, as well as shops, including a mall right across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Ashton Suites Willowbrook for 4 nights in January. The staff were all very nice and helpful. We'd asked for a room on the top floor (the 4th floor) in a quiet location and got it. In fact, for the first two nights we had the entire 4th floor to ourselves! Even when other guests were put on our floor the 3rd night of our stay, although we saw them out in the hall, we heard no sounds from the neighboring rooms. 
+As others have said, the bed was very comfortable and the room was extremely clean and spacious. We also liked the sitting area with a small couch, chair, and coffee table. We also liked having other chairs in the room (one in the corner and one at the desk). We really appreciated having a refrigerator in the room, as well as a microwave, safe, and a decent-sized closet. 
+The bathroom was also very clean. We do prefer a walk-in shower, rather than a tub with a shower curtain, as this room had, however the shower curtain looked brand new and was spotless. Our only complaint was that there was no place to hang a towel or washcloth in the bathroom, other than on the robe hook on the back of the bathroom door. Strangely, there's a sign in the bathroom that asks guests to hang towels on the towel rack that don't need to be...We stayed at the Ashton Suites Willowbrook for 4 nights in January. The staff were all very nice and helpful. We'd asked for a room on the top floor (the 4th floor) in a quiet location and got it. In fact, for the first two nights we had the entire 4th floor to ourselves! Even when other guests were put on our floor the 3rd night of our stay, although we saw them out in the hall, we heard no sounds from the neighboring rooms. As others have said, the bed was very comfortable and the room was extremely clean and spacious. We also liked the sitting area with a small couch, chair, and coffee table. We also liked having other chairs in the room (one in the corner and one at the desk). We really appreciated having a refrigerator in the room, as well as a microwave, safe, and a decent-sized closet. The bathroom was also very clean. We do prefer a walk-in shower, rather than a tub with a shower curtain, as this room had, however the shower curtain looked brand new and was spotless. Our only complaint was that there was no place to hang a towel or washcloth in the bathroom, other than on the robe hook on the back of the bathroom door. Strangely, there's a sign in the bathroom that asks guests to hang towels on the towel rack that don't need to be replaced, and to leave towels we want replaced on the floor. When I mentioned to the front desk clerk that there was no towel bar in our bathroom, she checked with maintenance and later told us that the robe hook on the back of the door is where we were supposed to hang towels. However, if you do that, there is no place to hang your robe or PJs when you are taking a shower. And if you hang a wash cloth on the back of the door after using it, it will likely drip a little onto the floor right where you will be stepping. So that is our only complaint about the room - install some towel bars please!Otherwise, you really can't go wrong with this hotel. They have a good breakfast selection that is free with the room. The hotel is very convenient to Bush Intercontinental Airport and also convenient for getting to several highways around the Houston area. It is also very close to several nice restaurants including BJ's Restaurant &amp; Brewhouse and the Macaroni Grill, as well as shops, including a mall right across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r340599476-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340599476</t>
+  </si>
+  <si>
+    <t>Excellent Stay at this Best Western</t>
+  </si>
+  <si>
+    <t>Have stayed here before and specifically stayed here again.  Great hotel in a perfect location for anything in NW Houston.  The front desk and breakfast staff were exceptionally pleasant and helpful.  They truly want your stay to be a positive experience.  I would highly recommend this Best Western for families, business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed here before and specifically stayed here again.  Great hotel in a perfect location for anything in NW Houston.  The front desk and breakfast staff were exceptionally pleasant and helpful.  They truly want your stay to be a positive experience.  I would highly recommend this Best Western for families, business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r340130871-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340130871</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Houston Trip</t>
+  </si>
+  <si>
+    <t>Stayed Sunday through Thursday. Awesome new Best Western. Great beds. I normally don't sleep well in Hotels but these 4 nights I did. Great service. I have reservations there again this next week. I stayed in a King Suite and it was spacious. The breakfast bar was the cleanest I've seen in quite some time with plenty of options including an omelet station.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed Sunday through Thursday. Awesome new Best Western. Great beds. I normally don't sleep well in Hotels but these 4 nights I did. Great service. I have reservations there again this next week. I stayed in a King Suite and it was spacious. The breakfast bar was the cleanest I've seen in quite some time with plenty of options including an omelet station.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r334729556-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334729556</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We were in Houston for a work business trip. This hotel had great rates and was a Best Western Premier location. Rooms and hotel were very comfortable. One of the best complimentary hot breakfasts I've had at a hotel ever. The restaurant/lounge is not really a thing - just in the breakfast area and able to cook stuff in the back. Overall the staff was really courteous and helpful. If back in Houston area would consider this hotel again.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r334413588-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334413588</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Great hotel for our business meeting</t>
+  </si>
+  <si>
+    <t>We had a meeting of around 25 people, all from different parts of the country. We were all very happy with our rooms, the meeting space and provisions for that (white board/projector), the delicious multi-option breakfast (omelets, fruit, etc.) and hotel location. All commented on how quiet the rooms were. It was the perfect hotel for our needs for our meeting.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded December 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2015</t>
+  </si>
+  <si>
+    <t>We had a meeting of around 25 people, all from different parts of the country. We were all very happy with our rooms, the meeting space and provisions for that (white board/projector), the delicious multi-option breakfast (omelets, fruit, etc.) and hotel location. All commented on how quiet the rooms were. It was the perfect hotel for our needs for our meeting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r331968882-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331968882</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>So nice, new, great modern design, helpful/professional staff. Wonderful huge room! trumps some top of the line downtown hotels by far! The design in rooms and overall was beautiful. Quiet and close to many amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded December 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2015</t>
+  </si>
+  <si>
+    <t>So nice, new, great modern design, helpful/professional staff. Wonderful huge room! trumps some top of the line downtown hotels by far! The design in rooms and overall was beautiful. Quiet and close to many amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r327419535-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327419535</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Pretty good place to stay</t>
+  </si>
+  <si>
+    <t>Staff was terrific, room was comfortable and quite roomy, bed was comfortable, breakfast was quite good.  The evening dinner menu was pretty good, especially the hamburger.  And, plenty of other places to eat close by.Things I didn't love:  rug design in room, hall and stairs.  No office chair at the desk area when working, so not comfortable for that.  All in all, I'd stay there again, it was a decent home away from home.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r327302920-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327302920</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Clean hotel, spacious room, comfortable bed, and professional staff. Complimentary breakfast (or breakfast to go) and a free drink on the house in the lounge during the early evening hours. The breakfast buffet is good but even better is an omelette bar where they will custom create an omelette. Nice extra touch!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Clean hotel, spacious room, comfortable bed, and professional staff. Complimentary breakfast (or breakfast to go) and a free drink on the house in the lounge during the early evening hours. The breakfast buffet is good but even better is an omelette bar where they will custom create an omelette. Nice extra touch!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r326387373-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326387373</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>A soacious confortable room with a full breakfast!</t>
+  </si>
+  <si>
+    <t>The hotel is equipped wit a microwave and fridge and the room has a separate sitting area with a couch. The shuttle can take you to a nearby place within 5 miles for free. The bed was so comfortable, too!MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is equipped wit a microwave and fridge and the room has a separate sitting area with a couch. The shuttle can take you to a nearby place within 5 miles for free. The bed was so comfortable, too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r323624350-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323624350</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softball tournament </t>
+  </si>
+  <si>
+    <t>Was told that this was a stay and play and was skeptical but after getting here I was very impressed room are very clean and spacious the food is good the staff was very friendly and accommodating the bathrooms they give you nice amenities it is well located close to a mall and a lot of other places to go do stuff if you have timeMoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Was told that this was a stay and play and was skeptical but after getting here I was very impressed room are very clean and spacious the food is good the staff was very friendly and accommodating the bathrooms they give you nice amenities it is well located close to a mall and a lot of other places to go do stuff if you have timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r322498302-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322498302</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Short stay, and a perfect one</t>
+  </si>
+  <si>
+    <t>I was in town for the Houston Texas festival known as Something Wicked. I stayed with my significant other checking in on a Friday and checking out on a Monday. The hotel itself is very, very clean and almost brand spanking new. If not completely.We did not encounter a problem.Although, the bar/restaurant is closed on Sunday. I will give this advice for families who are looking to stay some where. This is okay as long as you research to make sure there are no adult festivals and such happening at the same time you plan to stay. Some guests that stay at this hotel are loud and obnoxious. The mall is across the highway. Target and Walmart are near.This is a very well put location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>I was in town for the Houston Texas festival known as Something Wicked. I stayed with my significant other checking in on a Friday and checking out on a Monday. The hotel itself is very, very clean and almost brand spanking new. If not completely.We did not encounter a problem.Although, the bar/restaurant is closed on Sunday. I will give this advice for families who are looking to stay some where. This is okay as long as you research to make sure there are no adult festivals and such happening at the same time you plan to stay. Some guests that stay at this hotel are loud and obnoxious. The mall is across the highway. Target and Walmart are near.This is a very well put location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r321041254-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321041254</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Cozy and Friendly</t>
+  </si>
+  <si>
+    <t>I was expecting a nice room, but was very pleased when I opened the door.  The living room was spacious with a functional but comfortable sofa.  I would have liked to be able to watch TV from there, but the set is located on the dresser more for watching in bed.  The bed was very comfortable with lots of plump pillows.  There were black out curtains and sheers so you could control the light levels.  The staff was very welcoming and friendly and the breakfast selection was large.  There were a few times in my 4 night stay where they ran out of some items, but there was certainly enough other items to compensate.  The OJ was fresh squeezed and the fruit freshly cut and the omelets made to order.  I would certainly recommend it and it is easy to get to just off of the Sam Houston Parkway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>I was expecting a nice room, but was very pleased when I opened the door.  The living room was spacious with a functional but comfortable sofa.  I would have liked to be able to watch TV from there, but the set is located on the dresser more for watching in bed.  The bed was very comfortable with lots of plump pillows.  There were black out curtains and sheers so you could control the light levels.  The staff was very welcoming and friendly and the breakfast selection was large.  There were a few times in my 4 night stay where they ran out of some items, but there was certainly enough other items to compensate.  The OJ was fresh squeezed and the fruit freshly cut and the omelets made to order.  I would certainly recommend it and it is easy to get to just off of the Sam Houston Parkway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r311464594-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311464594</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>This place is a go</t>
+  </si>
+  <si>
+    <t>I was looking all around the airport area for a room the night before l fly back home. I was only here on business. I really wanted a place that was walking distance to get food and a beer. It was a little high (169.00). Once I walked in a saw why it was high. This place is very nice. I stay in many hotels with my job and I have to say I am impressed. Why: cookies on the bed, quality toiletries, I hear great breakfast, keurig coffee make.....oh and DirecTV!!!! Baller</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r309892084-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309892084</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>As soon an you walk in the lobby the décor is awesome which extends into to the room.  Very clean, with friendly employees.  Breakfast was great as well.  Great location, close to the mall and restaurants, yet tucked away in a quite place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>As soon an you walk in the lobby the décor is awesome which extends into to the room.  Very clean, with friendly employees.  Breakfast was great as well.  Great location, close to the mall and restaurants, yet tucked away in a quite place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r302875084-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302875084</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This is a nice hotel! Brightly decorated, Clean rooms, great fitness  center and excellent breakfast with cooked to order omelets and higher quality buffet food. Real scrambled eggs, not powdered or carton eggs. Staff was friendly, attentive and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2015</t>
+  </si>
+  <si>
+    <t>This is a nice hotel! Brightly decorated, Clean rooms, great fitness  center and excellent breakfast with cooked to order omelets and higher quality buffet food. Real scrambled eggs, not powdered or carton eggs. Staff was friendly, attentive and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r299060391-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299060391</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Best Customer Service/Biggest Value</t>
+  </si>
+  <si>
+    <t>Great place to stay overall.  Very affordable and tons of added value with the friendly staff.  Several employees went out of their way on different occasions to make my stay more comfortable.  This hotel had great space in room size, very clean, close to restaurants, bars, shopping, etc.. and the staff is what had the biggest impact on me.  Whatever I needed during my 10 day stay they were there!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay overall.  Very affordable and tons of added value with the friendly staff.  Several employees went out of their way on different occasions to make my stay more comfortable.  This hotel had great space in room size, very clean, close to restaurants, bars, shopping, etc.. and the staff is what had the biggest impact on me.  Whatever I needed during my 10 day stay they were there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r298529329-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298529329</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Surprised by very nice Best Western</t>
+  </si>
+  <si>
+    <t>New hotel with spacious rooms with mini refrigerators, microwaves and Keurig coffee machines.  Enjoyed the outdoor pool area and fitness room.  Breakfast buffet is outstanding (with omelette station).  Very close to Willowbrook Mall and restaurants.  Staff was kind, still working out a few kinks. Offered free happy hour drink between 5-10 pm but no employee available to work the shift. Scheduled shuttle to work the night before but driver never showed after waiting 30 minutes. Business center PC's were not working properly, had difficult time just printing my boarding pass.  I would still recommend as this hotel offers excellent value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r298649476-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298649476</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>The staff at his hotel always makes me feel welcome!  The hotel is very nice, clean, and room are nice size. I have a choice where to stay and I choose this hotel because they know me by name which shows their guests are important to them.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff at his hotel always makes me feel welcome!  The hotel is very nice, clean, and room are nice size. I have a choice where to stay and I choose this hotel because they know me by name which shows their guests are important to them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r296914604-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296914604</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>New and clean!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful stay! The hotel was very clean, the staff were friendly and helpful, and the rooms were arranged nicely.  The location was convenient also.  My children enjoyed swimming in the pool after a long drive. There were plenty of restaurants nearby for dine in or take out.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r295370105-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295370105</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>WOW, need I say more</t>
+  </si>
+  <si>
+    <t>Newer place only a year old extremely clean and friendly staff. Nice pool to cool down in.  Only about 10 minutes to Bush Airport.  Keurig Coffee maker in the lobby a 10+ since we had a early checkout to catch a flight.We will be returning to this place again. Hands down the best bang for the buck in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Newer place only a year old extremely clean and friendly staff. Nice pool to cool down in.  Only about 10 minutes to Bush Airport.  Keurig Coffee maker in the lobby a 10+ since we had a early checkout to catch a flight.We will be returning to this place again. Hands down the best bang for the buck in Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r293563941-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293563941</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Best Western Premier Rocks!!</t>
+  </si>
+  <si>
+    <t>I give this hotel 5 stars!! The breakfast every morning is great and a great variety, the amenities are great especially the fitness center and the lounge area. the location is everything near shopping, movies and all kinds of dining!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>I give this hotel 5 stars!! The breakfast every morning is great and a great variety, the amenities are great especially the fitness center and the lounge area. the location is everything near shopping, movies and all kinds of dining!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r281821764-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281821764</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Wonderful hotel and staff!</t>
+  </si>
+  <si>
+    <t>This is a clean, comfortable, and quiet hotel. The staff members were accommodating and great. Maria at the front desk was quick and efficient when she checked me in, even when she was training another staff member. She even remembered our names----a bonus helping guests feel welcome and not just another customer. Our housekeeper, Leticia, was great. Our room was spotless thanks to Leticia. She even assisted my toddler daughter across the hallway when the floors were newly mopped to prevent her from falling. The breakfast was another added delight. They had hot food.....and not just a couple of choices, but several to choose  from. The lady (I forgot her name) that made omelettes for us all 3 mornings made an extra effort to make sure that we were served promptly and made extra for my children upon our request. Thank you to all the staff for making our stay comfortable and enjoyable.  I will be returning whenever I am at this side of town. Hotel location is convenient with th mall just across the street and restaurants within 2 miles.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>This is a clean, comfortable, and quiet hotel. The staff members were accommodating and great. Maria at the front desk was quick and efficient when she checked me in, even when she was training another staff member. She even remembered our names----a bonus helping guests feel welcome and not just another customer. Our housekeeper, Leticia, was great. Our room was spotless thanks to Leticia. She even assisted my toddler daughter across the hallway when the floors were newly mopped to prevent her from falling. The breakfast was another added delight. They had hot food.....and not just a couple of choices, but several to choose  from. The lady (I forgot her name) that made omelettes for us all 3 mornings made an extra effort to make sure that we were served promptly and made extra for my children upon our request. Thank you to all the staff for making our stay comfortable and enjoyable.  I will be returning whenever I am at this side of town. Hotel location is convenient with th mall just across the street and restaurants within 2 miles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r279854499-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279854499</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Very nice Best Western.  Good area to access restaurants and shopping.   Very pleasant and helpful staff. Would definitely stay here again and recommend this hotel.  Breakfast was full of fantastic choices.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r278373423-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278373423</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Nice Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>Clean room. Would have been nice to have more towels without asking. We had 3 in our room and they always left only 2 towels. Sheets for fold out couch were not as clean as they could have been. I had to put a blanket down on the foldout bed in order for my son to sleep on it and then I had to use the duvet from the king bed to cover him because there was no flat sheet available and no additional blanket. They were supposed to have a cook to order egg/omelet station during weekdays but we were there on a Monday and there was no one available. Food was pretty good though. Nice pool and weight room. Nice staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Clean room. Would have been nice to have more towels without asking. We had 3 in our room and they always left only 2 towels. Sheets for fold out couch were not as clean as they could have been. I had to put a blanket down on the foldout bed in order for my son to sleep on it and then I had to use the duvet from the king bed to cover him because there was no flat sheet available and no additional blanket. They were supposed to have a cook to order egg/omelet station during weekdays but we were there on a Monday and there was no one available. Food was pretty good though. Nice pool and weight room. Nice staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r271866055-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271866055</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>New and Clean</t>
+  </si>
+  <si>
+    <t>Spent three nights at this hotel. The hotel is new and very clean. The staff was great. I was on second floor. If I had any complaints it would be that an ice machine is needed on second floor, There is what appears to be a space for one, but perhaps since it is new, the install has been delayed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r270369326-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270369326</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>A great place to stay</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the exterior or the surroundings, this Best western is new and it is lovely. The décor and furniture are comfy and chic, the bed was soooo comfortable. We had a suite with a small kitchen in it, has everything you need. Loved the complementary water and cookies. I have to give a shout out to Ivette. She really helped my husband out when he was trying to make a conference call for work. She tried room after room to get him to a connection and was so great. Breakfast was amazing, a mixture of buffet and fresh omelet station, had everything you could want, with one exception, there was no soy milk. That would have been nice, but there were enough alternatives. If you stay during the week there is a complimentary beer and wine, just so nice. We stayed here for business then pleasure, it is a great hotel and we will definitely be back the next time we go to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the exterior or the surroundings, this Best western is new and it is lovely. The décor and furniture are comfy and chic, the bed was soooo comfortable. We had a suite with a small kitchen in it, has everything you need. Loved the complementary water and cookies. I have to give a shout out to Ivette. She really helped my husband out when he was trying to make a conference call for work. She tried room after room to get him to a connection and was so great. Breakfast was amazing, a mixture of buffet and fresh omelet station, had everything you could want, with one exception, there was no soy milk. That would have been nice, but there were enough alternatives. If you stay during the week there is a complimentary beer and wine, just so nice. We stayed here for business then pleasure, it is a great hotel and we will definitely be back the next time we go to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r265380992-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265380992</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent property in North Houston</t>
+  </si>
+  <si>
+    <t>Let me say that given Best Western's tarnished brand value, this hotel is a cut above. This property is excellent, dare I say unexpectedly so. It has either been recently built or refurbished because everything is spanking new, and it is very well run. The rooms are very well equipped. Service was excellent, including breakfast which is normally really iffy at Best Westerns. Location is terrific, near shopping, dining and highways. And fast Wi-Fi. It's five stars from me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Let me say that given Best Western's tarnished brand value, this hotel is a cut above. This property is excellent, dare I say unexpectedly so. It has either been recently built or refurbished because everything is spanking new, and it is very well run. The rooms are very well equipped. Service was excellent, including breakfast which is normally really iffy at Best Westerns. Location is terrific, near shopping, dining and highways. And fast Wi-Fi. It's five stars from me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r263678953-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263678953</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>As good as it gets in this price range</t>
+  </si>
+  <si>
+    <t>I probably will repeat what numerous others already have said, but this hotel really is worth a stay. So here we go. Clean, bright and modern rooms with excellent features, like a desk you actually will be able to work on, and a sitting group that is great for kicking back before bed time. The bed is also worth a mention: Would steal it if I could fit it in my suitcase. And last but not least, the staff is really friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r263513072-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263513072</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Very comfortable at a good price</t>
+  </si>
+  <si>
+    <t>I stay in the area frequently for business, and have stayed in 6 different hotels within 5 miles.  The Best Western Premier Ashton Suites exceeded my expectations.  The room was bigger than I expected. Styling was contemporary, the the furniture functional. The bathroom was completely clean, and the state of the room looked "new".  I like that.   Towels were clean and new looking.  Same with the bedding.  TV worked well and there were many choices of HD programming available.  The WiFi worked okay, though on one day I had a few hickups and had to reconnect.  Other than that, it worked well, and was fast.  The hotel looks quite new (minus a few scuff marks in the hallway - travelers are hard on walls).  
+Free breakfast was okay.  On the plus side, they had a staff member who would cook eggs to-order right there in front of you.  Nice touch.  Other than eggs, there was cereal, some fruit, and some lame coffee (sorry, I like it WAY stronger).  There was bread, muffins and bagels.  So, a typical (albeit mediocre) free breakfast at an american chain hotel.  
+The location is relatively quiet (there's a freeway about 500 feet away, but you don't notice it).   The neighborhood has some bars and an adult entertainment facility, but it is tastefully bland from the outside, and far enough away that it really doesn't matter.  I would not hesitate to bring my family here.  
+There...I stay in the area frequently for business, and have stayed in 6 different hotels within 5 miles.  The Best Western Premier Ashton Suites exceeded my expectations.  The room was bigger than I expected. Styling was contemporary, the the furniture functional. The bathroom was completely clean, and the state of the room looked "new".  I like that.   Towels were clean and new looking.  Same with the bedding.  TV worked well and there were many choices of HD programming available.  The WiFi worked okay, though on one day I had a few hickups and had to reconnect.  Other than that, it worked well, and was fast.  The hotel looks quite new (minus a few scuff marks in the hallway - travelers are hard on walls).  Free breakfast was okay.  On the plus side, they had a staff member who would cook eggs to-order right there in front of you.  Nice touch.  Other than eggs, there was cereal, some fruit, and some lame coffee (sorry, I like it WAY stronger).  There was bread, muffins and bagels.  So, a typical (albeit mediocre) free breakfast at an american chain hotel.  The location is relatively quiet (there's a freeway about 500 feet away, but you don't notice it).   The neighborhood has some bars and an adult entertainment facility, but it is tastefully bland from the outside, and far enough away that it really doesn't matter.  I would not hesitate to bring my family here.  There was plenty of parking, and the parking lot was easily accessible. The building has a very large elevator, so no stairs are required.  The elevator is really slow, but it works. Front desk staff members were friendly and quick. I will definitely book this hotel again for my next trip to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded April 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2015</t>
+  </si>
+  <si>
+    <t>I stay in the area frequently for business, and have stayed in 6 different hotels within 5 miles.  The Best Western Premier Ashton Suites exceeded my expectations.  The room was bigger than I expected. Styling was contemporary, the the furniture functional. The bathroom was completely clean, and the state of the room looked "new".  I like that.   Towels were clean and new looking.  Same with the bedding.  TV worked well and there were many choices of HD programming available.  The WiFi worked okay, though on one day I had a few hickups and had to reconnect.  Other than that, it worked well, and was fast.  The hotel looks quite new (minus a few scuff marks in the hallway - travelers are hard on walls).  
+Free breakfast was okay.  On the plus side, they had a staff member who would cook eggs to-order right there in front of you.  Nice touch.  Other than eggs, there was cereal, some fruit, and some lame coffee (sorry, I like it WAY stronger).  There was bread, muffins and bagels.  So, a typical (albeit mediocre) free breakfast at an american chain hotel.  
+The location is relatively quiet (there's a freeway about 500 feet away, but you don't notice it).   The neighborhood has some bars and an adult entertainment facility, but it is tastefully bland from the outside, and far enough away that it really doesn't matter.  I would not hesitate to bring my family here.  
+There...I stay in the area frequently for business, and have stayed in 6 different hotels within 5 miles.  The Best Western Premier Ashton Suites exceeded my expectations.  The room was bigger than I expected. Styling was contemporary, the the furniture functional. The bathroom was completely clean, and the state of the room looked "new".  I like that.   Towels were clean and new looking.  Same with the bedding.  TV worked well and there were many choices of HD programming available.  The WiFi worked okay, though on one day I had a few hickups and had to reconnect.  Other than that, it worked well, and was fast.  The hotel looks quite new (minus a few scuff marks in the hallway - travelers are hard on walls).  Free breakfast was okay.  On the plus side, they had a staff member who would cook eggs to-order right there in front of you.  Nice touch.  Other than eggs, there was cereal, some fruit, and some lame coffee (sorry, I like it WAY stronger).  There was bread, muffins and bagels.  So, a typical (albeit mediocre) free breakfast at an american chain hotel.  The location is relatively quiet (there's a freeway about 500 feet away, but you don't notice it).   The neighborhood has some bars and an adult entertainment facility, but it is tastefully bland from the outside, and far enough away that it really doesn't matter.  I would not hesitate to bring my family here.  There was plenty of parking, and the parking lot was easily accessible. The building has a very large elevator, so no stairs are required.  The elevator is really slow, but it works. Front desk staff members were friendly and quick. I will definitely book this hotel again for my next trip to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r261824888-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261824888</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>not the right room for handicap</t>
+  </si>
+  <si>
+    <t>1.	The ironing board was very wet. I took it up to the front desk. Since I could not iron my pant I had to wear another pair.   2.	We stayed at the BW when all our friends stayed at the holiday inn on 1960 3.	I turned in a form for taxes and I was charge for the tax. 4.	At 1030 pm we came back to BW and I took a shower and water ran all over the floor and into the hallway. When I heard my wife said that she slip but did not fall due to water running under the door. I called the front desk for help and needed towel but I was told that security was on patrolled and that I need to come to the front desk to get the tower.  I told the person at the desk that I just got out of the shower and both of us are handicap.  I did not get the towel until the next morning. 5.	At check out I just told the person at the desk to email me my receipt.MoreShow less</t>
+  </si>
+  <si>
+    <t>1.	The ironing board was very wet. I took it up to the front desk. Since I could not iron my pant I had to wear another pair.   2.	We stayed at the BW when all our friends stayed at the holiday inn on 1960 3.	I turned in a form for taxes and I was charge for the tax. 4.	At 1030 pm we came back to BW and I took a shower and water ran all over the floor and into the hallway. When I heard my wife said that she slip but did not fall due to water running under the door. I called the front desk for help and needed towel but I was told that security was on patrolled and that I need to come to the front desk to get the tower.  I told the person at the desk that I just got out of the shower and both of us are handicap.  I did not get the towel until the next morning. 5.	At check out I just told the person at the desk to email me my receipt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r260256718-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260256718</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Beautiful rooms with comfortable beds.  Complimentary breakfast was awesome, very attentive staff. You will not be disappointed.  It was my first time staying at a Best Western and it was worth it. I will make sure to book Best Western Premier hotels</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r262852511-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262852511</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Excellent Stay!</t>
+  </si>
+  <si>
+    <t>This hotel is "over the top" in terms of amenities and cleanliness. Breakfast options were extensive and I loved the omelet bar. The staff were friendly and helpful. Rooms were extraordinarily clean. We went to Houston to visit the museum district and Galleria mall but it was important to me to have a clean and nice hotel at a reasonable price. I was leery about choosing hotel because in booking other hotels online I have sometimes been disappointed in how nice it was. When I read this was the newest hotel I went ahead and booked it. I was not disappointed. The 30 minute drive to the museum district was worth it!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is "over the top" in terms of amenities and cleanliness. Breakfast options were extensive and I loved the omelet bar. The staff were friendly and helpful. Rooms were extraordinarily clean. We went to Houston to visit the museum district and Galleria mall but it was important to me to have a clean and nice hotel at a reasonable price. I was leery about choosing hotel because in booking other hotels online I have sometimes been disappointed in how nice it was. When I read this was the newest hotel I went ahead and booked it. I was not disappointed. The 30 minute drive to the museum district was worth it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r259351501-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259351501</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Premier actually stands for Premier</t>
+  </si>
+  <si>
+    <t>Pleasantly satisfied with the environment, staff, price and location. I have had mixed feelings on Best Western Plus locations due to inconsistent standards. However, if this is a reflection of top of the line for Best Western, then kudos! This motel is at the level of Hyatt and Hilton. I highly recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Pleasantly satisfied with the environment, staff, price and location. I have had mixed feelings on Best Western Plus locations due to inconsistent standards. However, if this is a reflection of top of the line for Best Western, then kudos! This motel is at the level of Hyatt and Hilton. I highly recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r259202105-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259202105</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>I thought it was odd that a less expensive room had 5 stars, but when i walked in I was pretty amazed at the amenities for the price.  It was a 200 plus dollar room for much less and I will be staying there everytime i have to travel to Houston for work.MoreShow less</t>
+  </si>
+  <si>
+    <t>I thought it was odd that a less expensive room had 5 stars, but when i walked in I was pretty amazed at the amenities for the price.  It was a 200 plus dollar room for much less and I will be staying there everytime i have to travel to Houston for work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r258326496-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258326496</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>New and Nice</t>
+  </si>
+  <si>
+    <t>Found the hotel on priceline in the area i needed to stay.  Good price and very clean.  Staff was great. The breakfast was better than most at this price point.  Omelet station was good.  Will stay at this hotel again if in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r257506296-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257506296</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>So comfortable...</t>
+  </si>
+  <si>
+    <t>I saw this new location and decided to check in and " check it out". It was very clean, organized &amp; comfortable.  The staff was courteous and helpful. I'd definitely stay here again and/or recommend it to out of town guests!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded March 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2015</t>
+  </si>
+  <si>
+    <t>I saw this new location and decided to check in and " check it out". It was very clean, organized &amp; comfortable.  The staff was courteous and helpful. I'd definitely stay here again and/or recommend it to out of town guests!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r256472862-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256472862</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay all around</t>
+  </si>
+  <si>
+    <t>Though we often travel on business individually, my wife and I and older kids stayed here for a week during some work to our home.  Best feature for us was the breakfast--custom cooked omelets.  Excellent add-on. Has inside bar/lounge for evening, fitness center, business center.  Nearly eating place imaginable nearby and then some.  Couple of minor issues--the inroom Wifi was weak initially--called front desk, they rebooted the system, and worked satisfactorily rest of stay.  The noise level from the guests above us was louder than expected - just their walking around, not acting crazy.  Thought that was odd considering it's a new hotel and should be addressed in construction phase.  Last negative...the night security guard creeped out my wife...when he'd walk by, he'd look her up and down.  When I'd pass by him, I'd say 'hi' and he'd drop his head and look at the ground, not even a grunt.  Security did not make us feel welcome or safe.  that was a small part of our experience as the contact is limited and during a limited time.  Otherwise, the facility and staff were excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Though we often travel on business individually, my wife and I and older kids stayed here for a week during some work to our home.  Best feature for us was the breakfast--custom cooked omelets.  Excellent add-on. Has inside bar/lounge for evening, fitness center, business center.  Nearly eating place imaginable nearby and then some.  Couple of minor issues--the inroom Wifi was weak initially--called front desk, they rebooted the system, and worked satisfactorily rest of stay.  The noise level from the guests above us was louder than expected - just their walking around, not acting crazy.  Thought that was odd considering it's a new hotel and should be addressed in construction phase.  Last negative...the night security guard creeped out my wife...when he'd walk by, he'd look her up and down.  When I'd pass by him, I'd say 'hi' and he'd drop his head and look at the ground, not even a grunt.  Security did not make us feel welcome or safe.  that was a small part of our experience as the contact is limited and during a limited time.  Otherwise, the facility and staff were excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r251734581-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251734581</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Nice, new clean hotel</t>
+  </si>
+  <si>
+    <t>Hotel was new and clean, easy accessible.The staff at front desk was very friendly. The breakfast was was very good.The food was fresh, omlets were made as you ordered them. Normally hotels have continental breakfast with sweets. Here they have bacon, sausage, and ham. The decor throughout the hotel were vibrant and colorful. Very nice hotel. We enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r251461748-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251461748</t>
+  </si>
+  <si>
+    <t>Awesome Property</t>
+  </si>
+  <si>
+    <t>I must say that I travel a lot for business and almost exclusively stay at Hilton Properties, I am Diamond Elite with Hilton.  But let me tell you that this property is so much better than any of the Hilton properties in the area.  The rooms are comfortable, the staff is friendly and the breakfast if exceptional and free.  I do not plan to stay anywhere else when I come to this area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2015</t>
+  </si>
+  <si>
+    <t>I must say that I travel a lot for business and almost exclusively stay at Hilton Properties, I am Diamond Elite with Hilton.  But let me tell you that this property is so much better than any of the Hilton properties in the area.  The rooms are comfortable, the staff is friendly and the breakfast if exceptional and free.  I do not plan to stay anywhere else when I come to this area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r248359698-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248359698</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>CLEAN HOTEL, FRIENDLY STAFF</t>
+  </si>
+  <si>
+    <t>The hotel was really nice and the staff was awesome.  the hotel is also beautiful and clean.  breakfast is great as well.  Carolina,Angela, Christina and Leah are world class service providers.  I will stay here over and over again when I am in the houston area.  the only negative was the outdoor pool was not heated and my kids could not swim the entire 3 week stay.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r245029350-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245029350</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Renaissance weekend, family of five</t>
+  </si>
+  <si>
+    <t>Very nice, very new hotel. Front desk staff friendly and helpful. Free breakfast, with made to order omlet station (tip the girl!) Breakfast staff was awesome. They made sure we had everything we needed. Highly recommend this hotel. Room had two queen beds AND a pull out sofa. Perfect for our five.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Very nice, very new hotel. Front desk staff friendly and helpful. Free breakfast, with made to order omlet station (tip the girl!) Breakfast staff was awesome. They made sure we had everything we needed. Highly recommend this hotel. Room had two queen beds AND a pull out sofa. Perfect for our five.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r243026068-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243026068</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Very satisfied</t>
+  </si>
+  <si>
+    <t>Location of hotel was not so bad, considering the distance from hote.  Hotel was very new and very clean as it opened 2014.Aug and I stayed in 2014. Dec. Staffs were all very kind and made me comfirtable, when I contacted on the phone before arriving Houston and also when I stayed in the hotel. The only thing I was not satisfied was breakfast. As it was fully western style, but I was Asian.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Location of hotel was not so bad, considering the distance from hote.  Hotel was very new and very clean as it opened 2014.Aug and I stayed in 2014. Dec. Staffs were all very kind and made me comfirtable, when I contacted on the phone before arriving Houston and also when I stayed in the hotel. The only thing I was not satisfied was breakfast. As it was fully western style, but I was Asian.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r237125860-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237125860</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Like it</t>
+  </si>
+  <si>
+    <t>Hotel was great. Awesome breakfast. Sweet staff. Especially Leah and Christina... ;) Thank you so much. New hotel, with nice clean rooms. The towels are still soft. Decent rates considering the area. Many hotels around the area are very overpriced during the week, but rates are consistent here. Well worth the money.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r236120687-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236120687</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Amazing place to stay!</t>
+  </si>
+  <si>
+    <t>My first time to Houston and in this best western and it has been awesome! Leah the bartender was very welcoming and so very friendly I felt at home! I'm greatful to have such a friendly staff and place to stay on vacation. Definitely recommend staying here! MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded October 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2014</t>
+  </si>
+  <si>
+    <t>My first time to Houston and in this best western and it has been awesome! Leah the bartender was very welcoming and so very friendly I felt at home! I'm greatful to have such a friendly staff and place to stay on vacation. Definitely recommend staying here! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r235475604-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235475604</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Excellent facility</t>
+  </si>
+  <si>
+    <t>Check in was easy, room was clean, customer service was excellent, quality bed, located by a mall and many restaurants, I highly recommend this hotel to anyone and everyone.  Security on staff assured my safety and the safety of my vehicle.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r232096754-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232096754</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Comfortable, New, &amp; Favorable Location</t>
+  </si>
+  <si>
+    <t>I stayed in room 405 during a recent business trip to the Houston area. The staff is very friendly and the rooms are very clean. A very tasty breakfast, including made to order eggs or an omelet, is covered in the room rate. The hotel has a rather nice pool, guest laundry facilities ($1.25 per load per machine), and a small but descent work out center. Room 405 also had a small microwave and refrigerator. As a Best Western Rewards Member I paid a walk up rate of $159.00 per night ($159 Monday – Thurs, $99 Friday-Sunday). That rate was a little high for the area. With that in mind, there are restaurants, bars, &amp; a shopping mall within walking distance and the hotel is pretty quiet (aside from noise from the street/highway traffic).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I stayed in room 405 during a recent business trip to the Houston area. The staff is very friendly and the rooms are very clean. A very tasty breakfast, including made to order eggs or an omelet, is covered in the room rate. The hotel has a rather nice pool, guest laundry facilities ($1.25 per load per machine), and a small but descent work out center. Room 405 also had a small microwave and refrigerator. As a Best Western Rewards Member I paid a walk up rate of $159.00 per night ($159 Monday – Thurs, $99 Friday-Sunday). That rate was a little high for the area. With that in mind, there are restaurants, bars, &amp; a shopping mall within walking distance and the hotel is pretty quiet (aside from noise from the street/highway traffic).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r230964533-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230964533</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Breakfast of Kings</t>
+  </si>
+  <si>
+    <t>This hotel was great. Everything is brand new and anything that isn't brand new is kept so clean you would never know the difference. The Breakfast with made to order omelets was worth half the room rate alone. Leah, the bartender, was exceptionally cool and mixed a great drink. All the people behind the front desk were unbelievably helpful and courteous. The morning male manager was exceptionally friendly. I would recommend this hotel to anyone in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Vicky B, General Manager at Best Western Premier Ashton Suites-Willowbrook, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was great. Everything is brand new and anything that isn't brand new is kept so clean you would never know the difference. The Breakfast with made to order omelets was worth half the room rate alone. Leah, the bartender, was exceptionally cool and mixed a great drink. All the people behind the front desk were unbelievably helpful and courteous. The morning male manager was exceptionally friendly. I would recommend this hotel to anyone in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6833982-r229544061-Best_Western_Premier_Ashton_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229544061</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Amazing Establishment</t>
+  </si>
+  <si>
+    <t>Stayed here while attending a wedding. I can not say enough great things about this establishment. Check in was great. Breakfast was great. Staff was more than great. Beds were perfect. If the only complaint I have is they didn't have the type of ice cream I wanted down in the lobby, that should give you a good hint to stay here. Plenty of food around the area, movie theater close by, and they have a bar in the hotel open during the evenings. I will be staying here again if I am ever in this part of town again, For Sure.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2543,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2575,6574 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>191</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>198</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>198</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" t="s">
+        <v>237</v>
+      </c>
+      <c r="L32" t="s">
+        <v>238</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>239</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>246</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>269</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>264</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>276</v>
+      </c>
+      <c r="X38" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>279</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>276</v>
+      </c>
+      <c r="X39" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" t="s">
+        <v>288</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>258</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>276</v>
+      </c>
+      <c r="X40" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s">
+        <v>294</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>258</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>295</v>
+      </c>
+      <c r="X41" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" t="s">
+        <v>302</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>239</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>295</v>
+      </c>
+      <c r="X42" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>305</v>
+      </c>
+      <c r="J43" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" t="s">
+        <v>307</v>
+      </c>
+      <c r="L43" t="s">
+        <v>308</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>309</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>310</v>
+      </c>
+      <c r="X43" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" t="s">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s">
+        <v>317</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>239</v>
+      </c>
+      <c r="O44" t="s">
+        <v>96</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>310</v>
+      </c>
+      <c r="X44" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" t="s">
+        <v>321</v>
+      </c>
+      <c r="L45" t="s">
+        <v>322</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>239</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>310</v>
+      </c>
+      <c r="X45" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>325</v>
+      </c>
+      <c r="J46" t="s">
+        <v>326</v>
+      </c>
+      <c r="K46" t="s">
+        <v>327</v>
+      </c>
+      <c r="L46" t="s">
+        <v>328</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>239</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>329</v>
+      </c>
+      <c r="X46" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>329</v>
+      </c>
+      <c r="X47" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>339</v>
+      </c>
+      <c r="J48" t="s">
+        <v>340</v>
+      </c>
+      <c r="K48" t="s">
+        <v>341</v>
+      </c>
+      <c r="L48" t="s">
+        <v>342</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>309</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>329</v>
+      </c>
+      <c r="X48" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>345</v>
+      </c>
+      <c r="J49" t="s">
+        <v>346</v>
+      </c>
+      <c r="K49" t="s">
+        <v>347</v>
+      </c>
+      <c r="L49" t="s">
+        <v>348</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>309</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>349</v>
+      </c>
+      <c r="X49" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>353</v>
+      </c>
+      <c r="J50" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" t="s">
+        <v>355</v>
+      </c>
+      <c r="L50" t="s">
+        <v>356</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>309</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>357</v>
+      </c>
+      <c r="X50" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J51" t="s">
+        <v>362</v>
+      </c>
+      <c r="K51" t="s">
+        <v>363</v>
+      </c>
+      <c r="L51" t="s">
+        <v>364</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>309</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>365</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>366</v>
+      </c>
+      <c r="J52" t="s">
+        <v>367</v>
+      </c>
+      <c r="K52" t="s">
+        <v>368</v>
+      </c>
+      <c r="L52" t="s">
+        <v>369</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>370</v>
+      </c>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>371</v>
+      </c>
+      <c r="X52" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>375</v>
+      </c>
+      <c r="J53" t="s">
+        <v>376</v>
+      </c>
+      <c r="K53" t="s">
+        <v>377</v>
+      </c>
+      <c r="L53" t="s">
+        <v>378</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>370</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>379</v>
+      </c>
+      <c r="X53" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>382</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>383</v>
+      </c>
+      <c r="J54" t="s">
+        <v>376</v>
+      </c>
+      <c r="K54" t="s">
+        <v>384</v>
+      </c>
+      <c r="L54" t="s">
+        <v>385</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>370</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>379</v>
+      </c>
+      <c r="X54" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>387</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>388</v>
+      </c>
+      <c r="J55" t="s">
+        <v>389</v>
+      </c>
+      <c r="K55" t="s">
+        <v>390</v>
+      </c>
+      <c r="L55" t="s">
+        <v>391</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>370</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>379</v>
+      </c>
+      <c r="X55" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>393</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>394</v>
+      </c>
+      <c r="J56" t="s">
+        <v>395</v>
+      </c>
+      <c r="K56" t="s">
+        <v>396</v>
+      </c>
+      <c r="L56" t="s">
+        <v>397</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>398</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>399</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>400</v>
+      </c>
+      <c r="J57" t="s">
+        <v>401</v>
+      </c>
+      <c r="K57" t="s">
+        <v>402</v>
+      </c>
+      <c r="L57" t="s">
+        <v>403</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>398</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>404</v>
+      </c>
+      <c r="X57" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>407</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>408</v>
+      </c>
+      <c r="J58" t="s">
+        <v>409</v>
+      </c>
+      <c r="K58" t="s">
+        <v>410</v>
+      </c>
+      <c r="L58" t="s">
+        <v>411</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>398</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>412</v>
+      </c>
+      <c r="X58" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>415</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>416</v>
+      </c>
+      <c r="J59" t="s">
+        <v>417</v>
+      </c>
+      <c r="K59" t="s">
+        <v>418</v>
+      </c>
+      <c r="L59" t="s">
+        <v>419</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>420</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>421</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>422</v>
+      </c>
+      <c r="J60" t="s">
+        <v>423</v>
+      </c>
+      <c r="K60" t="s">
+        <v>424</v>
+      </c>
+      <c r="L60" t="s">
+        <v>425</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>426</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>427</v>
+      </c>
+      <c r="X60" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>430</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>431</v>
+      </c>
+      <c r="J61" t="s">
+        <v>432</v>
+      </c>
+      <c r="K61" t="s">
+        <v>433</v>
+      </c>
+      <c r="L61" t="s">
+        <v>434</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>426</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>435</v>
+      </c>
+      <c r="X61" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>439</v>
+      </c>
+      <c r="J62" t="s">
+        <v>440</v>
+      </c>
+      <c r="K62" t="s">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s">
+        <v>442</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>426</v>
+      </c>
+      <c r="O62" t="s">
+        <v>96</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>443</v>
+      </c>
+      <c r="X62" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>446</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>447</v>
+      </c>
+      <c r="J63" t="s">
+        <v>448</v>
+      </c>
+      <c r="K63" t="s">
+        <v>449</v>
+      </c>
+      <c r="L63" t="s">
+        <v>450</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>420</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>451</v>
+      </c>
+      <c r="X63" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>454</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>455</v>
+      </c>
+      <c r="J64" t="s">
+        <v>456</v>
+      </c>
+      <c r="K64" t="s">
+        <v>457</v>
+      </c>
+      <c r="L64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>420</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>459</v>
+      </c>
+      <c r="X64" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>462</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>463</v>
+      </c>
+      <c r="J65" t="s">
+        <v>464</v>
+      </c>
+      <c r="K65" t="s">
+        <v>465</v>
+      </c>
+      <c r="L65" t="s">
+        <v>466</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>467</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>468</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>469</v>
+      </c>
+      <c r="J66" t="s">
+        <v>470</v>
+      </c>
+      <c r="K66" t="s">
+        <v>471</v>
+      </c>
+      <c r="L66" t="s">
+        <v>472</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>467</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>473</v>
+      </c>
+      <c r="X66" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>476</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>477</v>
+      </c>
+      <c r="J67" t="s">
+        <v>478</v>
+      </c>
+      <c r="K67" t="s">
+        <v>479</v>
+      </c>
+      <c r="L67" t="s">
+        <v>480</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>481</v>
+      </c>
+      <c r="O67" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>482</v>
+      </c>
+      <c r="X67" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>485</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>486</v>
+      </c>
+      <c r="J68" t="s">
+        <v>487</v>
+      </c>
+      <c r="K68" t="s">
+        <v>488</v>
+      </c>
+      <c r="L68" t="s">
+        <v>489</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>481</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>482</v>
+      </c>
+      <c r="X68" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>491</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>492</v>
+      </c>
+      <c r="J69" t="s">
+        <v>493</v>
+      </c>
+      <c r="K69" t="s">
+        <v>494</v>
+      </c>
+      <c r="L69" t="s">
+        <v>495</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>496</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>497</v>
+      </c>
+      <c r="J70" t="s">
+        <v>493</v>
+      </c>
+      <c r="K70" t="s">
+        <v>498</v>
+      </c>
+      <c r="L70" t="s">
+        <v>499</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>481</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>482</v>
+      </c>
+      <c r="X70" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>501</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>502</v>
+      </c>
+      <c r="J71" t="s">
+        <v>503</v>
+      </c>
+      <c r="K71" t="s">
+        <v>504</v>
+      </c>
+      <c r="L71" t="s">
+        <v>505</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>481</v>
+      </c>
+      <c r="O71" t="s">
+        <v>67</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>506</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>507</v>
+      </c>
+      <c r="J72" t="s">
+        <v>508</v>
+      </c>
+      <c r="K72" t="s">
+        <v>509</v>
+      </c>
+      <c r="L72" t="s">
+        <v>510</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>481</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>511</v>
+      </c>
+      <c r="X72" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>514</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>515</v>
+      </c>
+      <c r="J73" t="s">
+        <v>516</v>
+      </c>
+      <c r="K73" t="s">
+        <v>517</v>
+      </c>
+      <c r="L73" t="s">
+        <v>518</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>519</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>520</v>
+      </c>
+      <c r="X73" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>523</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>524</v>
+      </c>
+      <c r="J74" t="s">
+        <v>525</v>
+      </c>
+      <c r="K74" t="s">
+        <v>526</v>
+      </c>
+      <c r="L74" t="s">
+        <v>527</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>528</v>
+      </c>
+      <c r="X74" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>531</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>532</v>
+      </c>
+      <c r="J75" t="s">
+        <v>533</v>
+      </c>
+      <c r="K75" t="s">
+        <v>479</v>
+      </c>
+      <c r="L75" t="s">
+        <v>534</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>535</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>536</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>537</v>
+      </c>
+      <c r="J76" t="s">
+        <v>538</v>
+      </c>
+      <c r="K76" t="s">
+        <v>539</v>
+      </c>
+      <c r="L76" t="s">
+        <v>540</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>541</v>
+      </c>
+      <c r="O76" t="s">
+        <v>67</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>543</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>544</v>
+      </c>
+      <c r="J77" t="s">
+        <v>545</v>
+      </c>
+      <c r="K77" t="s">
+        <v>546</v>
+      </c>
+      <c r="L77" t="s">
+        <v>547</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>541</v>
+      </c>
+      <c r="O77" t="s">
+        <v>67</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>548</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>549</v>
+      </c>
+      <c r="J78" t="s">
+        <v>550</v>
+      </c>
+      <c r="K78" t="s">
+        <v>551</v>
+      </c>
+      <c r="L78" t="s">
+        <v>552</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>553</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>554</v>
+      </c>
+      <c r="X78" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>557</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>558</v>
+      </c>
+      <c r="J79" t="s">
+        <v>559</v>
+      </c>
+      <c r="K79" t="s">
+        <v>560</v>
+      </c>
+      <c r="L79" t="s">
+        <v>561</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>553</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>562</v>
+      </c>
+      <c r="X79" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>565</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>566</v>
+      </c>
+      <c r="J80" t="s">
+        <v>567</v>
+      </c>
+      <c r="K80" t="s">
+        <v>568</v>
+      </c>
+      <c r="L80" t="s">
+        <v>569</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>553</v>
+      </c>
+      <c r="O80" t="s">
+        <v>191</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>570</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>571</v>
+      </c>
+      <c r="J81" t="s">
+        <v>572</v>
+      </c>
+      <c r="K81" t="s">
+        <v>573</v>
+      </c>
+      <c r="L81" t="s">
+        <v>574</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>575</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>576</v>
+      </c>
+      <c r="X81" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>579</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>580</v>
+      </c>
+      <c r="J82" t="s">
+        <v>581</v>
+      </c>
+      <c r="K82" t="s">
+        <v>582</v>
+      </c>
+      <c r="L82" t="s">
+        <v>583</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>553</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>585</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>586</v>
+      </c>
+      <c r="J83" t="s">
+        <v>587</v>
+      </c>
+      <c r="K83" t="s">
+        <v>471</v>
+      </c>
+      <c r="L83" t="s">
+        <v>588</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>553</v>
+      </c>
+      <c r="O83" t="s">
+        <v>67</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>589</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>590</v>
+      </c>
+      <c r="J84" t="s">
+        <v>591</v>
+      </c>
+      <c r="K84" t="s">
+        <v>592</v>
+      </c>
+      <c r="L84" t="s">
+        <v>593</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>553</v>
+      </c>
+      <c r="O84" t="s">
+        <v>67</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>595</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>596</v>
+      </c>
+      <c r="J85" t="s">
+        <v>597</v>
+      </c>
+      <c r="K85" t="s">
+        <v>598</v>
+      </c>
+      <c r="L85" t="s">
+        <v>599</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>553</v>
+      </c>
+      <c r="O85" t="s">
+        <v>67</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>600</v>
+      </c>
+      <c r="X85" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>603</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>604</v>
+      </c>
+      <c r="J86" t="s">
+        <v>605</v>
+      </c>
+      <c r="K86" t="s">
+        <v>606</v>
+      </c>
+      <c r="L86" t="s">
+        <v>607</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>553</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>600</v>
+      </c>
+      <c r="X86" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>609</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>610</v>
+      </c>
+      <c r="J87" t="s">
+        <v>611</v>
+      </c>
+      <c r="K87" t="s">
+        <v>612</v>
+      </c>
+      <c r="L87" t="s">
+        <v>613</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>553</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>614</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>615</v>
+      </c>
+      <c r="J88" t="s">
+        <v>616</v>
+      </c>
+      <c r="K88" t="s">
+        <v>617</v>
+      </c>
+      <c r="L88" t="s">
+        <v>618</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>619</v>
+      </c>
+      <c r="O88" t="s">
+        <v>191</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>620</v>
+      </c>
+      <c r="X88" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>623</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>624</v>
+      </c>
+      <c r="J89" t="s">
+        <v>625</v>
+      </c>
+      <c r="K89" t="s">
+        <v>626</v>
+      </c>
+      <c r="L89" t="s">
+        <v>627</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>628</v>
+      </c>
+      <c r="O89" t="s">
+        <v>67</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>630</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>631</v>
+      </c>
+      <c r="J90" t="s">
+        <v>632</v>
+      </c>
+      <c r="K90" t="s">
+        <v>633</v>
+      </c>
+      <c r="L90" t="s">
+        <v>634</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>635</v>
+      </c>
+      <c r="O90" t="s">
+        <v>96</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>636</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>637</v>
+      </c>
+      <c r="J91" t="s">
+        <v>632</v>
+      </c>
+      <c r="K91" t="s">
+        <v>638</v>
+      </c>
+      <c r="L91" t="s">
+        <v>639</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>635</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>640</v>
+      </c>
+      <c r="X91" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>643</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>644</v>
+      </c>
+      <c r="J92" t="s">
+        <v>645</v>
+      </c>
+      <c r="K92" t="s">
+        <v>646</v>
+      </c>
+      <c r="L92" t="s">
+        <v>647</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>648</v>
+      </c>
+      <c r="O92" t="s">
+        <v>67</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>649</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>650</v>
+      </c>
+      <c r="J93" t="s">
+        <v>651</v>
+      </c>
+      <c r="K93" t="s">
+        <v>652</v>
+      </c>
+      <c r="L93" t="s">
+        <v>653</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>654</v>
+      </c>
+      <c r="X93" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>657</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>658</v>
+      </c>
+      <c r="J94" t="s">
+        <v>659</v>
+      </c>
+      <c r="K94" t="s">
+        <v>660</v>
+      </c>
+      <c r="L94" t="s">
+        <v>661</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>648</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>662</v>
+      </c>
+      <c r="X94" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>665</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>666</v>
+      </c>
+      <c r="J95" t="s">
+        <v>667</v>
+      </c>
+      <c r="K95" t="s">
+        <v>668</v>
+      </c>
+      <c r="L95" t="s">
+        <v>669</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>670</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>671</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>672</v>
+      </c>
+      <c r="J96" t="s">
+        <v>673</v>
+      </c>
+      <c r="K96" t="s">
+        <v>674</v>
+      </c>
+      <c r="L96" t="s">
+        <v>675</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>676</v>
+      </c>
+      <c r="X96" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>679</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>680</v>
+      </c>
+      <c r="J97" t="s">
+        <v>681</v>
+      </c>
+      <c r="K97" t="s">
+        <v>682</v>
+      </c>
+      <c r="L97" t="s">
+        <v>683</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>670</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>684</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>685</v>
+      </c>
+      <c r="J98" t="s">
+        <v>686</v>
+      </c>
+      <c r="K98" t="s">
+        <v>687</v>
+      </c>
+      <c r="L98" t="s">
+        <v>688</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>689</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>691</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>692</v>
+      </c>
+      <c r="J99" t="s">
+        <v>693</v>
+      </c>
+      <c r="K99" t="s">
+        <v>694</v>
+      </c>
+      <c r="L99" t="s">
+        <v>695</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>696</v>
+      </c>
+      <c r="X99" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>63601</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>699</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>700</v>
+      </c>
+      <c r="J100" t="s">
+        <v>701</v>
+      </c>
+      <c r="K100" t="s">
+        <v>702</v>
+      </c>
+      <c r="L100" t="s">
+        <v>703</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>689</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
